--- a/Översikt ARVIDSJAUR.xlsx
+++ b/Översikt ARVIDSJAUR.xlsx
@@ -575,7 +575,7 @@
         <v>45140</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>45152</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>45832.64630787037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         <v>45777</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>45462</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44456</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44252</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>45439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44529</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44865</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>45635</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44797</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>45964</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>45975.3278125</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>45726</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44452</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45840.58945601852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>44817</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45975.42476851852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>45726</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>44790</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>45726</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45929</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44915</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>45974.63034722222</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>45537</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>45999</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>45839.51643518519</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>45975.41206018518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>45974.41572916666</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>46034</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45726</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>45611</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44855</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>44487</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>44487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45105</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45807.64883101852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>45922.66604166666</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>45929.65230324074</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>45946.54731481482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>45972.38201388889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>45975.43818287037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>45981.57612268518</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>45995.54681712963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>45161</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45590.57829861111</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>45601</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>45576.53655092593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>45617</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>44441</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>44326</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>44421</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>44442</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>44690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44715</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>44845</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>44511</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>44487</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>44490</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>44792</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44792</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>44690</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>44804</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>44621</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44369</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>44806</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>44382</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>44487</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>44322</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>44382</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>44552</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44433</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44543</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>44489</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44489</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>44819</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44624</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>44369</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44883</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>44369</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44391</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>44792.64452546297</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44735</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>44792</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>44812</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44530</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>44483</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>44440</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         <v>44487</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>44543.43594907408</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44532</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44721</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>44743</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>44419</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>44334</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>44511</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>45674</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>45090</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>44244</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>45103</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>45442</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>45316</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>45728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>45316</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>45470.35256944445</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>45182</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9003,7 +9003,7 @@
         <v>45722</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44818</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>45142</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>45329</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>45589</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>44804</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>45001</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>45621</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>45617.38408564815</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>44904</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>44911</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>45099</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>45478</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>45769</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>45566.66489583333</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>45309</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>45726</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>45726</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44321</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>45201</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>45799.55270833334</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>45426</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>45798</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>45799.55261574074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>45677.51043981482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>45546</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>45545</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>44979</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>45317</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44732</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44441</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>45805.54811342592</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44699</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>45601.56194444445</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>44804</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>45805.54646990741</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>45590.57452546297</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44334</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>45805.54035879629</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>45805.54270833333</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>45805.54394675926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>45303</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>45889.6356712963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>45888</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>45889.63354166667</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>45888</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>45888.34505787037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>45463.62568287037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>45888</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>45728</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44865</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>45475.46423611111</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>45890</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44320</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44497</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>45470.35686342593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>45364</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45329</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>45827</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>45896</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>45897.65011574074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         <v>45818</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>45898</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>45818</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>45818</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>45818</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>45610</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>45898</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>45821.28777777778</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45820.63246527778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>45820.63534722223</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>45602.6681712963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>45726</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         <v>45825.32150462963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44700</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>45825.31756944444</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13535,7 +13535,7 @@
         <v>45825</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>45824</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>45149</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         <v>45910.43453703704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>45911.63954861111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>45910.37789351852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>45910.41050925926</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>45827.57081018519</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>45910.59111111111</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>45912</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>45225</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44825</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>45917.52008101852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>45917.45298611111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>45916.39554398148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>45919.54172453703</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>45919.56200231481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14554,7 +14554,7 @@
         <v>45919.58480324074</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>45919</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>45919</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>45919.57630787037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>45919.57234953704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>45919</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>45919.45427083333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>45919.57429398148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>45919.5649537037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>45919.57530092593</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>45919.57869212963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>45922.66208333334</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>45922.55875</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>45923.28857638889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45922.5191550926</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>45922.64684027778</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
         <v>45111</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>45924.64552083334</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>45924.38020833334</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45538</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45929.39351851852</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>44439</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15903,7 +15903,7 @@
         <v>45929</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>45929</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>45502.33652777778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>45593.45075231481</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>45612</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>45930</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>44911</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16327,7 +16327,7 @@
         <v>45932.63599537037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>45933</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>45933</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>45933</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>45933</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>45933</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>45722</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>45932.64015046296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>45840</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44942</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>45840.585625</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>45840.3191087963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45937.43583333334</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45841</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45937.43831018519</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>45462</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45933</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45226</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45226</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45939</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>44428</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>45933</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45726</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45825.3119212963</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45944.54674768518</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45944.55045138889</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45944.53100694445</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>45946.55768518519</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18050,7 +18050,7 @@
         <v>45316</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45590</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45946.56050925926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45946.52356481482</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45950.48436342592</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>45950</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>45950.43512731481</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>45594</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>45950.48214120371</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>45950.48019675926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>45859.61556712963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>44855</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>45950.4332175926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>45769</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
         <v>45952</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>45869.52704861111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>45954.41598379629</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44819</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>45450</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>45957</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>45820</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         <v>45954.41857638889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19369,7 +19369,7 @@
         <v>45954.40479166667</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
         <v>45726</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>45191.28909722222</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>45875</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>45875.64945601852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>45961</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>45877.56238425926</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>45961.55643518519</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>45877</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>45084</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>45965</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>45965</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>45964.38981481481</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>45964.40795138889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>45225</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>45964</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>45881.30692129629</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20393,7 +20393,7 @@
         <v>45964.60665509259</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20450,7 +20450,7 @@
         <v>45965.29511574074</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>45965.29879629629</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
         <v>45965.39699074074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>45965.28409722223</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20693,7 +20693,7 @@
         <v>45881.30875</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>45965.88976851852</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20812,7 +20812,7 @@
         <v>45883</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44819</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20931,7 +20931,7 @@
         <v>45883</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20988,7 +20988,7 @@
         <v>45881.31024305556</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45973.43658564815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>45972.65466435185</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45972.59224537037</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>45974.59386574074</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>45975.46047453704</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21355,7 +21355,7 @@
         <v>45975.56208333333</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>45975.64247685186</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21479,7 +21479,7 @@
         <v>45974.57791666667</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>45975</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>45884</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>45975.34607638889</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>45448</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>45448</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>45975.64438657407</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>45975.65388888889</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>45975</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>45974.38932870371</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45975.46728009259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>45974.39626157407</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>45974.39755787037</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>45975.58065972223</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>45975.61517361111</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44860</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>45978</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>45978</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>44497</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22607,7 +22607,7 @@
         <v>45537</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>45978</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>45741</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
         <v>45167</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22850,7 +22850,7 @@
         <v>45310</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22907,7 +22907,7 @@
         <v>45981</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45982.3181712963</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23031,7 +23031,7 @@
         <v>45984.47054398148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>45590</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45985.55239583334</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>45538</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>45986.5440162037</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45786</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45986.37326388889</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>45986</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>45986</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45988</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>46034.5994212963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45098</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>46034</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>46034.47487268518</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>46035.5578125</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23931,7 +23931,7 @@
         <v>45120</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>46034</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>45994</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>45723</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24174,7 +24174,7 @@
         <v>45950.43695601852</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24231,7 +24231,7 @@
         <v>45726</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>45726</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>44424</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45439</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45995.38697916667</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24531,7 +24531,7 @@
         <v>45726</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24593,7 +24593,7 @@
         <v>45726</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>45726</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24717,7 +24717,7 @@
         <v>44426</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24779,7 +24779,7 @@
         <v>46039.21565972222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24836,7 +24836,7 @@
         <v>45595.31174768518</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>45996.33219907407</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24960,7 +24960,7 @@
         <v>46000</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>46003</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>45616</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>46003</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44421</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>46006</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25312,7 +25312,7 @@
         <v>45593</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25369,7 +25369,7 @@
         <v>45974</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         <v>46050.37045138889</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>45316</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>44819</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>45590.57606481481</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>45558.6424537037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25736,7 +25736,7 @@
         <v>45919</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>46052.35591435185</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25860,7 +25860,7 @@
         <v>46010</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>45560</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25984,7 +25984,7 @@
         <v>44442</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>46052.35887731481</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>46052.36274305556</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26170,7 +26170,7 @@
         <v>46013</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         <v>45617</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>45484.94219907407</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>45484.94334490741</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>46056.55535879629</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>45476</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26537,7 +26537,7 @@
         <v>44382</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>46056.55203703704</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>45960</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>46045.44871527778</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>45992.34451388889</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>45993.59430555555</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>45882</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>45538</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>45636</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27065,7 +27065,7 @@
         <v>44915.44876157407</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>46045.4275</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>45993.57403935185</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27241,7 +27241,7 @@
         <v>46029.38594907407</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
         <v>45960</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>45981.46944444445</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27412,7 +27412,7 @@
         <v>45590</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27469,7 +27469,7 @@
         <v>44988</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27531,7 +27531,7 @@
         <v>45600.41550925926</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45166</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>45470.35486111111</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27717,7 +27717,7 @@
         <v>45558.64387731482</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>45188.51991898148</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27841,7 +27841,7 @@
         <v>45517</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>45541</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>45600</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>45595.305</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28104,7 +28104,7 @@
         <v>45470.35973379629</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>45152</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>45152</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28290,7 +28290,7 @@
         <v>45450</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28352,7 +28352,7 @@
         <v>45454</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28409,7 +28409,7 @@
         <v>45225</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         <v>45093</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28528,7 +28528,7 @@
         <v>45551</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28590,7 +28590,7 @@
         <v>45551.60893518518</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>45541.33534722222</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>45470.55719907407</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28776,7 +28776,7 @@
         <v>45154</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28833,7 +28833,7 @@
         <v>45722</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28890,7 +28890,7 @@
         <v>45614</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28947,7 +28947,7 @@
         <v>45461</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>45593.45395833333</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29071,7 +29071,7 @@
         <v>45334</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29128,7 +29128,7 @@
         <v>45628</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29190,7 +29190,7 @@
         <v>45467</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29247,7 +29247,7 @@
         <v>45566</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>45727</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29371,7 +29371,7 @@
         <v>44428</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>45726</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29495,7 +29495,7 @@
         <v>45467</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29557,7 +29557,7 @@
         <v>45105</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29614,7 +29614,7 @@
         <v>45365</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29676,7 +29676,7 @@
         <v>45589</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29733,7 +29733,7 @@
         <v>45461</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>44824</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>45195</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>44977</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45625</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>45020</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30152,7 +30152,7 @@
         <v>45579.6725</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30214,7 +30214,7 @@
         <v>45189.53853009259</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30276,7 +30276,7 @@
         <v>44334</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30333,7 +30333,7 @@
         <v>45103</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30390,7 +30390,7 @@
         <v>44861</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>45616</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30509,7 +30509,7 @@
         <v>45364</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30571,7 +30571,7 @@
         <v>45702</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30628,7 +30628,7 @@
         <v>45775.44886574074</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30685,7 +30685,7 @@
         <v>45726</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30747,7 +30747,7 @@
         <v>45226</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30804,7 +30804,7 @@
         <v>45646</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         <v>45448</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30928,7 +30928,7 @@
         <v>45244</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>44903</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>45176</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31104,7 +31104,7 @@
         <v>44463</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31161,7 +31161,7 @@
         <v>45590</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31223,7 +31223,7 @@
         <v>45722</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31280,7 +31280,7 @@
         <v>45722</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31342,7 +31342,7 @@
         <v>45103</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31399,7 +31399,7 @@
         <v>45560</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31461,7 +31461,7 @@
         <v>45316</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31523,7 +31523,7 @@
         <v>45222.53628472222</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31585,7 +31585,7 @@
         <v>45361</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31642,7 +31642,7 @@
         <v>45484</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31704,7 +31704,7 @@
         <v>44915</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31766,7 +31766,7 @@
         <v>45726</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31828,7 +31828,7 @@
         <v>45701</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31885,7 +31885,7 @@
         <v>45582</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31942,7 +31942,7 @@
         <v>45600.67706018518</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32004,7 +32004,7 @@
         <v>45470.57751157408</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32061,7 +32061,7 @@
         <v>45470.57364583333</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32118,7 +32118,7 @@
         <v>45315</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32180,7 +32180,7 @@
         <v>45114</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32237,7 +32237,7 @@
         <v>45173</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32299,7 +32299,7 @@
         <v>45166</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32356,7 +32356,7 @@
         <v>45726</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>45726</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32480,7 +32480,7 @@
         <v>45726</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32542,7 +32542,7 @@
         <v>45454</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32599,7 +32599,7 @@
         <v>44804</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>45796</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>

--- a/Översikt ARVIDSJAUR.xlsx
+++ b/Översikt ARVIDSJAUR.xlsx
@@ -575,7 +575,7 @@
         <v>45140</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>45152</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>45832.64630787037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         <v>45777</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>45462</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44456</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44252</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>45439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>44529</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44865</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>45635</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44797</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>45964</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>45975.3278125</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>45726</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44452</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45840.58945601852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>44817</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45975.42476851852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>45726</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>44790</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>45726</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45929</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>44915</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         <v>45974.63034722222</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>45537</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>45999</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>45839.51643518519</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>45975.41206018518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>45974.41572916666</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>46034</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>45726</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>45611</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44855</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>44487</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>44487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45105</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45807.64883101852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>45922.66604166666</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>45929.65230324074</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>45946.54731481482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>45972.38201388889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>45975.43818287037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4770,7 +4770,7 @@
         <v>45981.57612268518</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>45995.54681712963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>45161</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45590.57829861111</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>45601</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>45576.53655092593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>45617</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>44441</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>44326</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>44421</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>44442</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>44690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44715</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>44845</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>44511</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>44487</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>44490</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>44792</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44792</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>44690</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>44804</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>44621</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44369</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>44806</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>44382</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>44487</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>44322</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>44382</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>44552</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>44433</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44543</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>44489</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44489</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>44819</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44624</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>44369</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44883</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>44369</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44391</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>44792.64452546297</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44735</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>44792</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>44812</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44530</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         <v>44483</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>44440</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         <v>44487</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>44543.43594907408</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>44532</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44721</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>44743</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>44419</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>44334</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>44511</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>45674</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>45090</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>44244</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>45103</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>45442</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>45316</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>45728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>45316</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>45470.35256944445</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>45182</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9003,7 +9003,7 @@
         <v>45722</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44818</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>45142</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>45329</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>45589</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>44804</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>45001</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>45621</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>45617.38408564815</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>44904</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>44911</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>45099</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>45478</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>45769</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>45566.66489583333</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>45309</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>45726</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>45726</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44321</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>45201</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>45799.55270833334</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>45426</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>45798</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>45799.55261574074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>45677.51043981482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>45546</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>45545</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>44979</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>45317</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44732</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44441</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>45805.54811342592</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44699</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>45601.56194444445</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>44804</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>45805.54646990741</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>45590.57452546297</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44334</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>45805.54035879629</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>45805.54270833333</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>45805.54394675926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>45303</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>45889.6356712963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>45888</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>45889.63354166667</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>45888</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>45888.34505787037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>45463.62568287037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>45888</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>45728</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44865</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>45475.46423611111</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>45890</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44320</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44497</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>45470.35686342593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>45364</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45329</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>45827</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>45896</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>45897.65011574074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         <v>45818</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>45898</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>45818</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>45818</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>45818</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>45610</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>45898</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>45821.28777777778</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45820.63246527778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>45820.63534722223</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>45602.6681712963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>45726</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         <v>45825.32150462963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44700</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>45825.31756944444</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13535,7 +13535,7 @@
         <v>45825</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>45824</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>45149</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         <v>45910.43453703704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>45911.63954861111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>45910.37789351852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>45910.41050925926</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>45827.57081018519</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>45910.59111111111</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>45912</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>45225</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44825</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>45917.52008101852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>45917.45298611111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>45916.39554398148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>45919.54172453703</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>45919.56200231481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14554,7 +14554,7 @@
         <v>45919.58480324074</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>45919</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>45919</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>45919.57630787037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>45919.57234953704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>45919</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>45919.45427083333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>45919.57429398148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>45919.5649537037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>45919.57530092593</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>45919.57869212963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>45922.66208333334</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>45922.55875</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>45923.28857638889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45922.5191550926</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>45922.64684027778</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
         <v>45111</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>45924.64552083334</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>45924.38020833334</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45538</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45929.39351851852</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>44439</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15903,7 +15903,7 @@
         <v>45929</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>45929</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>45502.33652777778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>45593.45075231481</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>45612</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>45930</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>44911</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16327,7 +16327,7 @@
         <v>45932.63599537037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>45933</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>45933</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>45933</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>45933</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         <v>45933</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>45722</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>45932.64015046296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>45840</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44942</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>45840.585625</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>45840.3191087963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45937.43583333334</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45841</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45937.43831018519</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>45462</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>45933</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45226</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45226</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45939</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>44428</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>45933</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45726</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45825.3119212963</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45944.54674768518</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45944.55045138889</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45944.53100694445</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>45946.55768518519</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18050,7 +18050,7 @@
         <v>45316</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45590</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45946.56050925926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45946.52356481482</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45950.48436342592</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>45950</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>45950.43512731481</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>45594</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>45950.48214120371</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>45950.48019675926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>45859.61556712963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>44855</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>45950.4332175926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>45769</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
         <v>45952</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>45869.52704861111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19002,7 +19002,7 @@
         <v>45954.41598379629</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19064,7 +19064,7 @@
         <v>44819</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>45450</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>45957</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>45820</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         <v>45954.41857638889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19369,7 +19369,7 @@
         <v>45954.40479166667</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
         <v>45726</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>45191.28909722222</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>45875</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>45875.64945601852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>45961</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>45877.56238425926</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>45961.55643518519</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>45877</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>45084</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>45965</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>45965</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>45964.38981481481</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>45964.40795138889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>45225</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>45964</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>45881.30692129629</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20393,7 +20393,7 @@
         <v>45964.60665509259</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20450,7 +20450,7 @@
         <v>45965.29511574074</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>45965.29879629629</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
         <v>45965.39699074074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>45965.28409722223</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20693,7 +20693,7 @@
         <v>45881.30875</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>45965.88976851852</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20812,7 +20812,7 @@
         <v>45883</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44819</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20931,7 +20931,7 @@
         <v>45883</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20988,7 +20988,7 @@
         <v>45881.31024305556</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45973.43658564815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>45972.65466435185</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45972.59224537037</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>45974.59386574074</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>45975.46047453704</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21355,7 +21355,7 @@
         <v>45975.56208333333</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>45975.64247685186</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21479,7 +21479,7 @@
         <v>45974.57791666667</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>45975</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>45884</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>45975.34607638889</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>45448</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>45448</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>45975.64438657407</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>45975.65388888889</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>45975</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>45974.38932870371</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45975.46728009259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>45974.39626157407</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>45974.39755787037</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>45975.58065972223</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>45975.61517361111</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>44860</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>45978</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>45978</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>44497</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22607,7 +22607,7 @@
         <v>45537</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>45978</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>45741</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
         <v>45167</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22850,7 +22850,7 @@
         <v>45310</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22907,7 +22907,7 @@
         <v>45981</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45982.3181712963</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23031,7 +23031,7 @@
         <v>45984.47054398148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>45590</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45985.55239583334</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>45538</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>45986.5440162037</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45786</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45986.37326388889</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>45986</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>45986</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45988</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>46034.5994212963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45098</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>46034</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>46034.47487268518</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>46035.5578125</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23931,7 +23931,7 @@
         <v>45120</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>46034</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>45994</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>45723</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24174,7 +24174,7 @@
         <v>45950.43695601852</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24231,7 +24231,7 @@
         <v>45726</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>45726</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>44424</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45439</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45995.38697916667</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24531,7 +24531,7 @@
         <v>45726</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24593,7 +24593,7 @@
         <v>45726</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>45726</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24717,7 +24717,7 @@
         <v>44426</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24779,7 +24779,7 @@
         <v>46039.21565972222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24836,7 +24836,7 @@
         <v>45595.31174768518</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>45996.33219907407</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24960,7 +24960,7 @@
         <v>46000</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>46003</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>45616</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>46003</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44421</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>46006</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25312,7 +25312,7 @@
         <v>45593</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25369,7 +25369,7 @@
         <v>45974</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         <v>46050.37045138889</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>45316</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>44819</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>45590.57606481481</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>45558.6424537037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25736,7 +25736,7 @@
         <v>45919</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>46052.35591435185</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25860,7 +25860,7 @@
         <v>46010</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>45560</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25984,7 +25984,7 @@
         <v>44442</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26046,7 +26046,7 @@
         <v>46052.35887731481</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>46052.36274305556</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26170,7 +26170,7 @@
         <v>46013</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         <v>45617</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>45484.94219907407</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>45484.94334490741</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>46056.55535879629</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>45476</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26537,7 +26537,7 @@
         <v>44382</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>46056.55203703704</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>45960</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>46045.44871527778</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>45992.34451388889</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>45993.59430555555</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>45882</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>45538</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>45636</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27065,7 +27065,7 @@
         <v>44915.44876157407</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>46045.4275</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>45993.57403935185</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27241,7 +27241,7 @@
         <v>46029.38594907407</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
         <v>45960</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>45981.46944444445</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27412,7 +27412,7 @@
         <v>45590</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27469,7 +27469,7 @@
         <v>44988</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27531,7 +27531,7 @@
         <v>45600.41550925926</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45166</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>45470.35486111111</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27717,7 +27717,7 @@
         <v>45558.64387731482</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>45188.51991898148</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27841,7 +27841,7 @@
         <v>45517</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>45541</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>45600</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>45595.305</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28104,7 +28104,7 @@
         <v>45470.35973379629</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>45152</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>45152</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28290,7 +28290,7 @@
         <v>45450</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28352,7 +28352,7 @@
         <v>45454</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28409,7 +28409,7 @@
         <v>45225</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         <v>45093</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28528,7 +28528,7 @@
         <v>45551</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28590,7 +28590,7 @@
         <v>45551.60893518518</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>45541.33534722222</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>45470.55719907407</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28776,7 +28776,7 @@
         <v>45154</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28833,7 +28833,7 @@
         <v>45722</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28890,7 +28890,7 @@
         <v>45614</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28947,7 +28947,7 @@
         <v>45461</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>45593.45395833333</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29071,7 +29071,7 @@
         <v>45334</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29128,7 +29128,7 @@
         <v>45628</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29190,7 +29190,7 @@
         <v>45467</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29247,7 +29247,7 @@
         <v>45566</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29309,7 +29309,7 @@
         <v>45727</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29371,7 +29371,7 @@
         <v>44428</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>45726</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29495,7 +29495,7 @@
         <v>45467</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29557,7 +29557,7 @@
         <v>45105</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29614,7 +29614,7 @@
         <v>45365</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29676,7 +29676,7 @@
         <v>45589</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29733,7 +29733,7 @@
         <v>45461</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>44824</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>45195</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>44977</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45625</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>45020</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30152,7 +30152,7 @@
         <v>45579.6725</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30214,7 +30214,7 @@
         <v>45189.53853009259</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30276,7 +30276,7 @@
         <v>44334</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30333,7 +30333,7 @@
         <v>45103</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30390,7 +30390,7 @@
         <v>44861</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>45616</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30509,7 +30509,7 @@
         <v>45364</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30571,7 +30571,7 @@
         <v>45702</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30628,7 +30628,7 @@
         <v>45775.44886574074</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30685,7 +30685,7 @@
         <v>45726</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30747,7 +30747,7 @@
         <v>45226</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30804,7 +30804,7 @@
         <v>45646</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         <v>45448</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30928,7 +30928,7 @@
         <v>45244</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>44903</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>45176</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31104,7 +31104,7 @@
         <v>44463</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31161,7 +31161,7 @@
         <v>45590</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31223,7 +31223,7 @@
         <v>45722</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31280,7 +31280,7 @@
         <v>45722</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31342,7 +31342,7 @@
         <v>45103</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31399,7 +31399,7 @@
         <v>45560</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31461,7 +31461,7 @@
         <v>45316</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31523,7 +31523,7 @@
         <v>45222.53628472222</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31585,7 +31585,7 @@
         <v>45361</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31642,7 +31642,7 @@
         <v>45484</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31704,7 +31704,7 @@
         <v>44915</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31766,7 +31766,7 @@
         <v>45726</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31828,7 +31828,7 @@
         <v>45701</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31885,7 +31885,7 @@
         <v>45582</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31942,7 +31942,7 @@
         <v>45600.67706018518</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32004,7 +32004,7 @@
         <v>45470.57751157408</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32061,7 +32061,7 @@
         <v>45470.57364583333</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32118,7 +32118,7 @@
         <v>45315</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32180,7 +32180,7 @@
         <v>45114</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32237,7 +32237,7 @@
         <v>45173</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32299,7 +32299,7 @@
         <v>45166</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32356,7 +32356,7 @@
         <v>45726</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>45726</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32480,7 +32480,7 @@
         <v>45726</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32542,7 +32542,7 @@
         <v>45454</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32599,7 +32599,7 @@
         <v>44804</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>45796</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>

--- a/Översikt ARVIDSJAUR.xlsx
+++ b/Översikt ARVIDSJAUR.xlsx
@@ -575,7 +575,7 @@
         <v>45140</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>45152</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>45832.64630787037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         <v>45777</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>45462</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>44456</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>44252</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45439</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>44529</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>44865</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>45635</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>44797</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>45964</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>45975.3278125</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45726</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>44452</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>45840.58945601852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44817</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>45975.42476851852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45726</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>44790</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>45726</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>45929</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>44915</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>45537</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>45974.63034722222</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>45999</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45839.51643518519</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>45975.41206018518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>45974.41572916666</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>46034</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>45726</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>45611</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44855</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         <v>44487</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>44487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>45922.66604166666</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>45929.65230324074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>45946.54731481482</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>45972.38201388889</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>45975.43818287037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>45981.57612268518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>45161</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>45995.54681712963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>45590.57829861111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>45601</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>45576.53655092593</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>45617</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44441</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>45105</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>45807.64883101852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>44326</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>44421</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>44442</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         <v>44690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>44715</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44845</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>44511</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>44487</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>44490</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44792</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>44792</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44690</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>44804</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>44621</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44369</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>44806</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>44487</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>44322</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>44382</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44382</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>44552</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>44433</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>44543</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>44489</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>44489</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>44440</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>44819</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>44624</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>44369</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>44883</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44369</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44391</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44792.64452546297</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44735</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44792</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>44812</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>44530</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>44483</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>44440</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44543.43594907408</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>44487</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7985,7 +7985,7 @@
         <v>44532</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44721</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>44741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44743</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44419</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>44334</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44511</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>45674</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>45090</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>45442</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>45316</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>45728</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>45316</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>45103</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>45470.35256944445</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>45182</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>45722</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44818</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>45142</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45329</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45589</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>44804</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>45001</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>45621</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>45617.38408564815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>45099</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>44911</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>45309</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45769</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>45478</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>44904</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>45566.66489583333</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>45726</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>45726</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>44321</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>45201</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>45426</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>45546</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>45545</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44979</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>45601.56194444445</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10447,7 +10447,7 @@
         <v>45317</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>45303</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>45463.62568287037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>45475.46423611111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>45364</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44320</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>45470.35686342593</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>45728</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>45818</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>45818</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         <v>45818</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>45818</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>45821.28777777778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>45820.63246527778</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11275,7 +11275,7 @@
         <v>45820.63534722223</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>45610</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>45825.32150462963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>45825.31756944444</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>45889.6356712963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11580,7 +11580,7 @@
         <v>45888</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>45889.63354166667</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>45888</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>45888.34505787037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>45825</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>45824</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>45888</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>45602.6681712963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>45726</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>45890</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>45827.57081018519</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44700</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>45149</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>45827</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>45896</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>45897.65011574074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>45225</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>44825</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>45898</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>45898</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>45111</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>45840</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>45840.585625</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>45840.3191087963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>45910.43453703704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>45841</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>45911.63954861111</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>45910.37789351852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>45910.41050925926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>45538</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>45910.59111111111</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13422,7 +13422,7 @@
         <v>45912</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13479,7 +13479,7 @@
         <v>44439</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>45502.33652777778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>45593.45075231481</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>45917.52008101852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>45612</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>45917.45298611111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>45916.39554398148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>44911</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>45919.54172453703</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>45919.56200231481</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         <v>45919.58480324074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>45919</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>45919</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>45919.57630787037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>45919.57234953704</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14389,7 +14389,7 @@
         <v>45919</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>45919.45427083333</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>45919.57429398148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>45919.5649537037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>45919.57530092593</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>45919.57869212963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>45722</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>45922.66208333334</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>45922.55875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>44942</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14999,7 +14999,7 @@
         <v>45859.61556712963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15056,7 +15056,7 @@
         <v>44855</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>45923.28857638889</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>45922.5191550926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         <v>45922.64684027778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15299,7 +15299,7 @@
         <v>44944</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>45924.64552083334</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>45924.38020833334</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15485,7 +15485,7 @@
         <v>45869.52704861111</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>45929.39351851852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>45929</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15671,7 +15671,7 @@
         <v>45462</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45226</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45226</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>44428</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>45929</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>45726</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         <v>45875</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>45930</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45875.64945601852</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>45932.63599537037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>45933</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>45933</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>45933</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>45933</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>45933</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16561,7 +16561,7 @@
         <v>45877.56238425926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>45316</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>45590</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>45877</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16809,7 +16809,7 @@
         <v>45932.64015046296</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16871,7 +16871,7 @@
         <v>45881.30692129629</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>45594</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>45881.30875</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>45883</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>45883</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>45937.43583333334</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>45881.31024305556</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>45937.43831018519</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>45769</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>45933</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44819</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17528,7 +17528,7 @@
         <v>45450</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>45939</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>45933</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>45884</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>45825.3119212963</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>45944.54674768518</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>45726</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>45191.28909722222</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>45944.55045138889</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>45944.53100694445</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>45946.55768518519</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>45946.56050925926</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>45946.52356481482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>45950.48436342592</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>45950</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>45950.43512731481</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>45950.48214120371</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>45950.48019675926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>45950.4332175926</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>45084</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>45225</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>45952</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18899,7 +18899,7 @@
         <v>45954.41598379629</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>45957</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>45820</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>45954.41857638889</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19142,7 +19142,7 @@
         <v>45954.40479166667</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44819</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         <v>45961</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19328,7 +19328,7 @@
         <v>45961.55643518519</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>45448</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>45448</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>45965</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19566,7 +19566,7 @@
         <v>45965</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19623,7 +19623,7 @@
         <v>44860</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19680,7 +19680,7 @@
         <v>45964.38981481481</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19742,7 +19742,7 @@
         <v>45964.40795138889</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>45964</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>45537</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19923,7 +19923,7 @@
         <v>45964.60665509259</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19980,7 +19980,7 @@
         <v>45965.29511574074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20042,7 +20042,7 @@
         <v>45965.29879629629</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>45965.39699074074</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>45965.28409722223</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>45167</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>45965.88976851852</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>45310</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>45973.43658564815</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20461,7 +20461,7 @@
         <v>45972.65466435185</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>45972.59224537037</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>45590</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>45974.59386574074</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45538</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>45975.46047453704</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>45975.56208333333</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45975.64247685186</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>45974.57791666667</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45975</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45975.34607638889</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>45975.64438657407</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45975.65388888889</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45975</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>45974.38932870371</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21361,7 +21361,7 @@
         <v>45975.46728009259</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>45974.39626157407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45974.39755787037</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>45975.58065972223</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>45975.61517361111</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>45978</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>45978</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>45978</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>45741</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>45981</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>45982.3181712963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>45984.47054398148</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>45098</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>45985.55239583334</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>45986.5440162037</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>45786</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22318,7 +22318,7 @@
         <v>45986.37326388889</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>45986</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>45986</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>45120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>45988</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22618,7 +22618,7 @@
         <v>46034.5994212963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>45726</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>45726</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>46034</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>46034.47487268518</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44424</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>45439</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>45726</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         <v>45726</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>45726</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>46035.5578125</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>46034</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>45994</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23409,7 +23409,7 @@
         <v>45723</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>45950.43695601852</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23528,7 +23528,7 @@
         <v>44426</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         <v>45995.38697916667</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45595.31174768518</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>46039.21565972222</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>45996.33219907407</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>46000</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23895,7 +23895,7 @@
         <v>45616</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23952,7 +23952,7 @@
         <v>46003</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24009,7 +24009,7 @@
         <v>46003</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         <v>44421</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>45593</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24180,7 +24180,7 @@
         <v>46006</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>45316</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>44819</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24366,7 +24366,7 @@
         <v>45590.57606481481</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24428,7 +24428,7 @@
         <v>45558.6424537037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>46050.37045138889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>45560</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24614,7 +24614,7 @@
         <v>44442</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>45919</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>46052.35591435185</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>46010</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24862,7 +24862,7 @@
         <v>46052.35887731481</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>45617</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>46052.36274305556</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>46013</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25105,7 +25105,7 @@
         <v>45484.94219907407</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>45484.94334490741</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>45476</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44382</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25353,7 +25353,7 @@
         <v>46056.55535879629</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25415,7 +25415,7 @@
         <v>45538</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>45636</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>46056.55203703704</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25596,7 +25596,7 @@
         <v>44915.44876157407</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25658,7 +25658,7 @@
         <v>45960</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25715,7 +25715,7 @@
         <v>46045.44871527778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25772,7 +25772,7 @@
         <v>45992.34451388889</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25829,7 +25829,7 @@
         <v>45993.59430555555</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25886,7 +25886,7 @@
         <v>45882</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>46045.4275</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26000,7 +26000,7 @@
         <v>45993.57403935185</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26057,7 +26057,7 @@
         <v>45960</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26114,7 +26114,7 @@
         <v>45981.46944444445</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26171,7 +26171,7 @@
         <v>46057</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>45590</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44988</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>45600.41550925926</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>45166</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>45470.35486111111</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45558.64387731482</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>46034</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45188.51991898148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>45517</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>45541</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>45600</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>45595.305</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26982,7 +26982,7 @@
         <v>45470.35973379629</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27044,7 +27044,7 @@
         <v>46029.38594907407</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27101,7 +27101,7 @@
         <v>45152</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>45152</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>45450</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45454</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45225</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45974</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>45093</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27520,7 +27520,7 @@
         <v>45551</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45551.60893518518</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>46072.83361111111</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45541.33534722222</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45470.55719907407</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27825,7 +27825,7 @@
         <v>45154</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>45722</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>45614</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>45461</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28058,7 +28058,7 @@
         <v>45593.45395833333</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28120,7 +28120,7 @@
         <v>45334</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28177,7 +28177,7 @@
         <v>45628</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28239,7 +28239,7 @@
         <v>45467</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28296,7 +28296,7 @@
         <v>45566</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28358,7 +28358,7 @@
         <v>45727</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>44428</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28482,7 +28482,7 @@
         <v>45726</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28544,7 +28544,7 @@
         <v>45467</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28606,7 +28606,7 @@
         <v>45105</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28663,7 +28663,7 @@
         <v>45365</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28725,7 +28725,7 @@
         <v>45589</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28782,7 +28782,7 @@
         <v>45461</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28844,7 +28844,7 @@
         <v>44824</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>45195</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28968,7 +28968,7 @@
         <v>44259</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29025,7 +29025,7 @@
         <v>44977</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29082,7 +29082,7 @@
         <v>45625</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29139,7 +29139,7 @@
         <v>45020</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         <v>45579.6725</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29263,7 +29263,7 @@
         <v>45189.53853009259</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29325,7 +29325,7 @@
         <v>44334</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29382,7 +29382,7 @@
         <v>45103</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29439,7 +29439,7 @@
         <v>44861</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29501,7 +29501,7 @@
         <v>45616</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29558,7 +29558,7 @@
         <v>45364</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29620,7 +29620,7 @@
         <v>45702</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29677,7 +29677,7 @@
         <v>45775.44886574074</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>45726</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>45226</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>45646</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29915,7 +29915,7 @@
         <v>45448</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29977,7 +29977,7 @@
         <v>45244</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>44903</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30096,7 +30096,7 @@
         <v>45176</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30153,7 +30153,7 @@
         <v>44463</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>45590</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30272,7 +30272,7 @@
         <v>45722</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>45722</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>45103</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30448,7 +30448,7 @@
         <v>45560</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30510,7 +30510,7 @@
         <v>45316</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30572,7 +30572,7 @@
         <v>45222.53628472222</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30634,7 +30634,7 @@
         <v>45361</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         <v>45484</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>44915</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>45726</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30877,7 +30877,7 @@
         <v>45701</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30934,7 +30934,7 @@
         <v>45582</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30991,7 +30991,7 @@
         <v>45600.67706018518</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31053,7 +31053,7 @@
         <v>45470.57751157408</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31110,7 +31110,7 @@
         <v>45470.57364583333</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31167,7 +31167,7 @@
         <v>45315</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>45114</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31286,7 +31286,7 @@
         <v>45173</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31348,7 +31348,7 @@
         <v>45166</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31405,7 +31405,7 @@
         <v>45726</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>45726</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31529,7 +31529,7 @@
         <v>45726</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31591,7 +31591,7 @@
         <v>45454</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31648,7 +31648,7 @@
         <v>44804</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45796</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31762,7 +31762,7 @@
         <v>45799.55270833334</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31819,7 +31819,7 @@
         <v>45798</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31881,7 +31881,7 @@
         <v>45799.55261574074</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31938,7 +31938,7 @@
         <v>45677.51043981482</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31995,7 +31995,7 @@
         <v>44732</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32052,7 +32052,7 @@
         <v>44441</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32109,7 +32109,7 @@
         <v>45805.54811342592</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>44699</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>44804</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32285,7 +32285,7 @@
         <v>45805.54646990741</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         <v>45590.57452546297</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44334</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         <v>45805.54035879629</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>45805.54270833333</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>45805.54394675926</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32652,7 +32652,7 @@
         <v>44865</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32709,7 +32709,7 @@
         <v>44497</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32771,7 +32771,7 @@
         <v>45329</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
